--- a/20181205_BRT/doc/Benchmark_graphs.xlsx
+++ b/20181205_BRT/doc/Benchmark_graphs.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18115,7 +18116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25573,7 +25573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -25691,7 +25690,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27877,7 +27875,7 @@
   <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
